--- a/v0p3/gerber_v0p3_r1/CPL_JLCPCB.xlsx
+++ b/v0p3/gerber_v0p3_r1/CPL_JLCPCB.xlsx
@@ -267,7 +267,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,7 +483,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
